--- a/public/website/Template QC - Buyer.xlsx
+++ b/public/website/Template QC - Buyer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nexus_qc\public\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9519218-4599-49EF-902B-F4111C345057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62648CA6-EA0F-4B34-BA67-98BEEAAAAE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{A3DCF785-C53C-4D5E-BAD4-FD893C938BDF}"/>
   </bookViews>
@@ -488,9 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA6D9CF-D589-40C3-9DE2-291CB4B78DDE}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -544,94 +546,6 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -641,10 +555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E9DC2F-0AFB-4F55-B32C-E87689AF4E91}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,63 +594,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
